--- a/JVK-4/ABSTRACT RECEIVED AND BALANCE.xlsx
+++ b/JVK-4/ABSTRACT RECEIVED AND BALANCE.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\JVK-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3CF26E-B7CF-46BF-B274-D83A71088EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74220390-8F91-4732-AA02-1B87BCD066E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75AFA915-FAFD-4C6E-A08D-9F76589D1A56}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>TEXT BOOKS</t>
   </si>
@@ -121,6 +122,9 @@
   </si>
   <si>
     <t>ITEM WISE JVK INDENT, RECEIVED AND BALANCE AS ON 20.06.2023</t>
+  </si>
+  <si>
+    <t>ITEM WISE JVK INDENT, RECEIVED AND BALANCE</t>
   </si>
 </sst>
 </file>
@@ -228,12 +232,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -245,6 +243,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,11 +563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8154B29-9BC0-4365-B47B-916B49A192F7}">
-  <dimension ref="B2:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0819EBD-1D82-448F-AC30-D4B76D2BE990}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:H40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,617 +584,1243 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>60340</v>
+      </c>
+      <c r="F5" s="5">
+        <v>60340</v>
+      </c>
+      <c r="G5" s="5">
+        <f>E5-F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <f>SUM(E5:E5)</f>
+        <v>60340</v>
+      </c>
+      <c r="F6" s="6">
+        <f>SUM(F5:F5)</f>
+        <v>60340</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" ref="G6" si="0">E6-F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>18533</v>
+      </c>
+      <c r="F8" s="5">
+        <v>18533</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" ref="G8" si="1">E8-F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <f>SUM(E8:E8)</f>
+        <v>18533</v>
+      </c>
+      <c r="F9" s="6">
+        <f>SUM(F8:F8)</f>
+        <v>18533</v>
+      </c>
+      <c r="G9" s="6">
+        <f>E9-F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5">
+        <v>17924</v>
+      </c>
+      <c r="F11" s="5">
+        <v>17924</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" ref="G11:G15" si="2">E11-F11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5">
+        <v>19792</v>
+      </c>
+      <c r="F12" s="5">
+        <v>19792</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4357</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4357</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2489</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2489</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>44562</v>
+      </c>
+      <c r="F15" s="6">
+        <v>44562</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>4</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1866</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1866</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" ref="G17:G20" si="3">E17-F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3017</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3017</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4357</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4357</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6">
+        <f>SUM(E17:E19)</f>
+        <v>9240</v>
+      </c>
+      <c r="F20" s="6">
+        <f>SUM(F17:F19)</f>
+        <v>9240</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4883</v>
+      </c>
+      <c r="F22" s="5">
+        <v>4883</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" ref="G22:G25" si="4">E22-F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1344</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1344</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5">
+        <v>798</v>
+      </c>
+      <c r="F24" s="5">
+        <v>798</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6">
+        <f>SUM(E22:E24)</f>
+        <v>7025</v>
+      </c>
+      <c r="F25" s="6">
+        <f>SUM(F22:F24)</f>
+        <v>7025</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
+        <v>6</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4604</v>
+      </c>
+      <c r="F27" s="5">
+        <v>4604</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" ref="G27:G29" si="5">E27-F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4636</v>
+      </c>
+      <c r="F28" s="5">
+        <v>4636</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="6">
+        <f>SUM(E27:E28)</f>
+        <v>9240</v>
+      </c>
+      <c r="F29" s="6">
+        <f>SUM(F27:F28)</f>
+        <v>9240</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="9">
+        <v>7</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="5">
+        <v>933</v>
+      </c>
+      <c r="F31" s="5">
+        <v>933</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" ref="G31:G33" si="6">E31-F31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="5">
+        <v>939</v>
+      </c>
+      <c r="F32" s="5">
+        <v>939</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="6">
+        <f>SUM(E31:E32)</f>
+        <v>1872</v>
+      </c>
+      <c r="F33" s="6">
+        <f>SUM(F31:F32)</f>
+        <v>1872</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="9">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4609</v>
+      </c>
+      <c r="F35" s="5">
+        <v>4609</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" ref="G35:G37" si="7">E35-F35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="5">
+        <v>4631</v>
+      </c>
+      <c r="F36" s="5">
+        <v>4631</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6">
+        <f>SUM(E35:E36)</f>
+        <v>9240</v>
+      </c>
+      <c r="F37" s="6">
+        <f>SUM(F35:F36)</f>
+        <v>9240</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8154B29-9BC0-4365-B47B-916B49A192F7}">
+  <dimension ref="B2:G39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:7" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>60340</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>60340</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <f>E5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>17860</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" ref="G6:G7" si="0">E6-F6</f>
         <v>17860</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <f>SUM(E5:E6)</f>
         <v>78200</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <f>SUM(F5:F6)</f>
         <v>60340</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>17860</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>18533</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>18533</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <f t="shared" ref="G9:G10" si="1">E9-F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>7902</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>7902</v>
       </c>
     </row>
     <row r="11" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <f>SUM(E9:E10)</f>
         <v>26435</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <f>SUM(F9:F10)</f>
         <v>18533</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <f>E11-F11</f>
         <v>7902</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="9">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>17924</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>17924</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <f t="shared" ref="G13:G17" si="2">E13-F13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>19792</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>19792</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>4357</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>4357</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>2489</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>2489</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>44562</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>44562</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+      <c r="B18" s="9">
         <v>4</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>1866</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" ref="G19:G22" si="3">E19-F19</f>
         <v>1866</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>3017</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
         <v>3017</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>4357</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>4357</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="8" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <f>SUM(E19:E21)</f>
         <v>9240</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <f>SUM(F19:F21)</f>
         <v>4357</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <f t="shared" si="3"/>
         <v>4883</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
+      <c r="B23" s="9">
         <v>5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>4883</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>4883</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <f t="shared" ref="G24:G27" si="4">E24-F24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>1344</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <v>1344</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>798</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>798</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="6">
         <f>SUM(E24:E26)</f>
         <v>7025</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="6">
         <f>SUM(F24:F26)</f>
         <v>7025</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
+      <c r="B28" s="9">
         <v>6</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>4604</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="5">
         <v>4604</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="5">
         <f t="shared" ref="G29:G31" si="5">E29-F29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>4636</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="5">
         <v>4636</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <f>SUM(E29:E30)</f>
         <v>9240</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <f>SUM(F29:F30)</f>
         <v>9240</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
+      <c r="B32" s="9">
         <v>7</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>933</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="5">
         <v>933</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="5">
         <f t="shared" ref="G33:G35" si="6">E33-F33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>939</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="5">
         <v>939</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="8" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="6">
         <f>SUM(E33:E34)</f>
         <v>1872</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <f>SUM(F33:F34)</f>
         <v>1872</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="6">
+      <c r="B36" s="9">
         <v>8</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <v>4609</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="5">
         <v>4609</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="5">
         <f t="shared" ref="G37:G39" si="7">E37-F37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>4631</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="5">
         <v>4631</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="6">
         <f>SUM(E37:E38)</f>
         <v>9240</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="6">
         <f>SUM(F37:F38)</f>
         <v>9240</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1204,13 +1837,13 @@
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C17"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/JVK-4/ABSTRACT RECEIVED AND BALANCE.xlsx
+++ b/JVK-4/ABSTRACT RECEIVED AND BALANCE.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\JVK-4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74220390-8F91-4732-AA02-1B87BCD066E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75AFA915-FAFD-4C6E-A08D-9F76589D1A56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -121,16 +115,16 @@
     <t>S.NO</t>
   </si>
   <si>
-    <t>ITEM WISE JVK INDENT, RECEIVED AND BALANCE AS ON 20.06.2023</t>
-  </si>
-  <si>
     <t>ITEM WISE JVK INDENT, RECEIVED AND BALANCE</t>
+  </si>
+  <si>
+    <t>ITEM WISE JVK INDENT, RECEIVED AND BALANCE AS ON 09.08.2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -362,7 +356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -556,20 +550,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0819EBD-1D82-448F-AC30-D4B76D2BE990}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -585,7 +579,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1167,13 +1161,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="B34:B37"/>
@@ -1184,6 +1171,13 @@
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1192,11 +1186,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8154B29-9BC0-4365-B47B-916B49A192F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1208,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1278,11 +1275,11 @@
         <v>17860</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>17860</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" ref="G6:G7" si="0">E6-F6</f>
-        <v>17860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1297,11 +1294,11 @@
       </c>
       <c r="F7" s="6">
         <f>SUM(F5:F6)</f>
-        <v>60340</v>
+        <v>78200</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>17860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1343,11 +1340,11 @@
         <v>7902</v>
       </c>
       <c r="F10" s="5">
-        <v>0</v>
+        <v>7902</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>7902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1362,11 +1359,11 @@
       </c>
       <c r="F11" s="6">
         <f>SUM(F9:F10)</f>
-        <v>18533</v>
+        <v>26435</v>
       </c>
       <c r="G11" s="6">
         <f>E11-F11</f>
-        <v>7902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1488,11 +1485,11 @@
         <v>1866</v>
       </c>
       <c r="F19" s="5">
-        <v>0</v>
+        <v>1866</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" ref="G19:G22" si="3">E19-F19</f>
-        <v>1866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -1505,11 +1502,11 @@
         <v>3017</v>
       </c>
       <c r="F20" s="5">
-        <v>0</v>
+        <v>3017</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="3"/>
-        <v>3017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -1541,11 +1538,11 @@
       </c>
       <c r="F22" s="6">
         <f>SUM(F19:F21)</f>
-        <v>4357</v>
+        <v>9240</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="3"/>
-        <v>4883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1827,6 +1824,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="B36:B39"/>
@@ -1837,15 +1841,8 @@
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>